--- a/Appointments.xlsx
+++ b/Appointments.xlsx
@@ -1,27 +1,509 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phoneno</t>
+  </si>
+  <si>
+    <t>aptTime</t>
+  </si>
+  <si>
+    <t>aptDay</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Richard Smith</t>
+  </si>
+  <si>
+    <t>Linda Lewis</t>
+  </si>
+  <si>
+    <t>Steven Williams</t>
+  </si>
+  <si>
+    <t>Kimberly Lane</t>
+  </si>
+  <si>
+    <t>Christina Ballard</t>
+  </si>
+  <si>
+    <t>Deborah Everett</t>
+  </si>
+  <si>
+    <t>Steven Henry</t>
+  </si>
+  <si>
+    <t>Marilyn Washington</t>
+  </si>
+  <si>
+    <t>Chad Martinez</t>
+  </si>
+  <si>
+    <t>Christina Green</t>
+  </si>
+  <si>
+    <t>Nicole Smith</t>
+  </si>
+  <si>
+    <t>Larry Meyer</t>
+  </si>
+  <si>
+    <t>Haley Cooper</t>
+  </si>
+  <si>
+    <t>Maria Villarreal</t>
+  </si>
+  <si>
+    <t>Jonathan Mendez</t>
+  </si>
+  <si>
+    <t>Michael Lee</t>
+  </si>
+  <si>
+    <t>Nicholas Perez</t>
+  </si>
+  <si>
+    <t>Jennifer Hamilton</t>
+  </si>
+  <si>
+    <t>Nicole Carey</t>
+  </si>
+  <si>
+    <t>Kevin Holmes</t>
+  </si>
+  <si>
+    <t>Eric Smith</t>
+  </si>
+  <si>
+    <t>William Wilson</t>
+  </si>
+  <si>
+    <t>Walter Murphy</t>
+  </si>
+  <si>
+    <t>Anthony Cardenas</t>
+  </si>
+  <si>
+    <t>Terrence Smith</t>
+  </si>
+  <si>
+    <t>Jackie Gonzalez</t>
+  </si>
+  <si>
+    <t>Ryan Taylor</t>
+  </si>
+  <si>
+    <t>Cindy Bishop</t>
+  </si>
+  <si>
+    <t>Lindsey Cross</t>
+  </si>
+  <si>
+    <t>Ryan Callahan MD</t>
+  </si>
+  <si>
+    <t>gabriel35@hotmail.com</t>
+  </si>
+  <si>
+    <t>markcarter@adams-pennington.com</t>
+  </si>
+  <si>
+    <t>cherylbowen@gmail.com</t>
+  </si>
+  <si>
+    <t>rodriguezivan@hotmail.com</t>
+  </si>
+  <si>
+    <t>craig23@torres.com</t>
+  </si>
+  <si>
+    <t>harriscarrie@newman.com</t>
+  </si>
+  <si>
+    <t>rsanchez@yahoo.com</t>
+  </si>
+  <si>
+    <t>richard01@hotmail.com</t>
+  </si>
+  <si>
+    <t>laurieshaw@miller-ayers.com</t>
+  </si>
+  <si>
+    <t>jbartlett@hobbs.net</t>
+  </si>
+  <si>
+    <t>laura58@valdez-rodriguez.com</t>
+  </si>
+  <si>
+    <t>shannonsherman@burton.info</t>
+  </si>
+  <si>
+    <t>sanchezmatthew@hotmail.com</t>
+  </si>
+  <si>
+    <t>olivermaria@brown.com</t>
+  </si>
+  <si>
+    <t>owhite@yahoo.com</t>
+  </si>
+  <si>
+    <t>ebrown@gmail.com</t>
+  </si>
+  <si>
+    <t>kathy41@hotmail.com</t>
+  </si>
+  <si>
+    <t>benjaminphillips@hotmail.com</t>
+  </si>
+  <si>
+    <t>hoovererin@smith.com</t>
+  </si>
+  <si>
+    <t>ethan99@yahoo.com</t>
+  </si>
+  <si>
+    <t>andrewsjennifer@gmail.com</t>
+  </si>
+  <si>
+    <t>josephbrown@barker.info</t>
+  </si>
+  <si>
+    <t>jorgesimmons@hill.com</t>
+  </si>
+  <si>
+    <t>sfisher@burton.com</t>
+  </si>
+  <si>
+    <t>danielle59@hotmail.com</t>
+  </si>
+  <si>
+    <t>gonzalezsean@garcia.com</t>
+  </si>
+  <si>
+    <t>michaela49@rivers.com</t>
+  </si>
+  <si>
+    <t>leah15@hernandez-george.com</t>
+  </si>
+  <si>
+    <t>brendajones@yahoo.com</t>
+  </si>
+  <si>
+    <t>vincent18@hill.com</t>
+  </si>
+  <si>
+    <t>461-244-1445</t>
+  </si>
+  <si>
+    <t>846-263-8036</t>
+  </si>
+  <si>
+    <t>829-438-5068</t>
+  </si>
+  <si>
+    <t>714-993-5614</t>
+  </si>
+  <si>
+    <t>372-925-9855</t>
+  </si>
+  <si>
+    <t>910-121-6153</t>
+  </si>
+  <si>
+    <t>686-536-3296</t>
+  </si>
+  <si>
+    <t>780-854-1070</t>
+  </si>
+  <si>
+    <t>653-305-4658</t>
+  </si>
+  <si>
+    <t>195-167-8093</t>
+  </si>
+  <si>
+    <t>694-916-5856</t>
+  </si>
+  <si>
+    <t>363-490-1864</t>
+  </si>
+  <si>
+    <t>720-393-2522</t>
+  </si>
+  <si>
+    <t>467-849-8310</t>
+  </si>
+  <si>
+    <t>889-706-7802</t>
+  </si>
+  <si>
+    <t>871-111-9450</t>
+  </si>
+  <si>
+    <t>773-830-7272</t>
+  </si>
+  <si>
+    <t>854-808-9859</t>
+  </si>
+  <si>
+    <t>691-954-6711</t>
+  </si>
+  <si>
+    <t>746-968-5919</t>
+  </si>
+  <si>
+    <t>937-463-5042</t>
+  </si>
+  <si>
+    <t>320-239-3119</t>
+  </si>
+  <si>
+    <t>450-372-5702</t>
+  </si>
+  <si>
+    <t>933-434-6712</t>
+  </si>
+  <si>
+    <t>466-645-2734</t>
+  </si>
+  <si>
+    <t>158-424-9101</t>
+  </si>
+  <si>
+    <t>818-155-1500</t>
+  </si>
+  <si>
+    <t>997-134-4132</t>
+  </si>
+  <si>
+    <t>582-987-5698</t>
+  </si>
+  <si>
+    <t>401-247-3682</t>
+  </si>
+  <si>
+    <t>12:28</t>
+  </si>
+  <si>
+    <t>22:26</t>
+  </si>
+  <si>
+    <t>06:40</t>
+  </si>
+  <si>
+    <t>03:43</t>
+  </si>
+  <si>
+    <t>04:55</t>
+  </si>
+  <si>
+    <t>19:32</t>
+  </si>
+  <si>
+    <t>08:28</t>
+  </si>
+  <si>
+    <t>08:13</t>
+  </si>
+  <si>
+    <t>22:41</t>
+  </si>
+  <si>
+    <t>17:08</t>
+  </si>
+  <si>
+    <t>02:57</t>
+  </si>
+  <si>
+    <t>20:07</t>
+  </si>
+  <si>
+    <t>01:08</t>
+  </si>
+  <si>
+    <t>08:20</t>
+  </si>
+  <si>
+    <t>02:13</t>
+  </si>
+  <si>
+    <t>20:49</t>
+  </si>
+  <si>
+    <t>19:37</t>
+  </si>
+  <si>
+    <t>12:43</t>
+  </si>
+  <si>
+    <t>06:51</t>
+  </si>
+  <si>
+    <t>03:21</t>
+  </si>
+  <si>
+    <t>03:16</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>10:21</t>
+  </si>
+  <si>
+    <t>08:44</t>
+  </si>
+  <si>
+    <t>19:45</t>
+  </si>
+  <si>
+    <t>02:04</t>
+  </si>
+  <si>
+    <t>05:33</t>
+  </si>
+  <si>
+    <t>12:24</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>17:43</t>
+  </si>
+  <si>
+    <t>22:08:72</t>
+  </si>
+  <si>
+    <t>27:03:78</t>
+  </si>
+  <si>
+    <t>09:01:86</t>
+  </si>
+  <si>
+    <t>21:01:14</t>
+  </si>
+  <si>
+    <t>19:04:06</t>
+  </si>
+  <si>
+    <t>15:04:22</t>
+  </si>
+  <si>
+    <t>24:08:80</t>
+  </si>
+  <si>
+    <t>01:08:06</t>
+  </si>
+  <si>
+    <t>28:10:94</t>
+  </si>
+  <si>
+    <t>21:01:98</t>
+  </si>
+  <si>
+    <t>04:10:94</t>
+  </si>
+  <si>
+    <t>21:03:74</t>
+  </si>
+  <si>
+    <t>17:06:09</t>
+  </si>
+  <si>
+    <t>05:09:83</t>
+  </si>
+  <si>
+    <t>08:09:12</t>
+  </si>
+  <si>
+    <t>23:04:08</t>
+  </si>
+  <si>
+    <t>07:08:01</t>
+  </si>
+  <si>
+    <t>21:05:20</t>
+  </si>
+  <si>
+    <t>20:10:88</t>
+  </si>
+  <si>
+    <t>18:04:07</t>
+  </si>
+  <si>
+    <t>06:05:70</t>
+  </si>
+  <si>
+    <t>09:07:72</t>
+  </si>
+  <si>
+    <t>20:03:24</t>
+  </si>
+  <si>
+    <t>24:04:87</t>
+  </si>
+  <si>
+    <t>10:09:78</t>
+  </si>
+  <si>
+    <t>18:07:90</t>
+  </si>
+  <si>
+    <t>28:01:85</t>
+  </si>
+  <si>
+    <t>22:10:80</t>
+  </si>
+  <si>
+    <t>14:11:76</t>
+  </si>
+  <si>
+    <t>31:05:15</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +519,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +527,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -79,44 +571,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +635,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +669,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +680,891 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Appointments.xlsx
+++ b/Appointments.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\UiPath\AppointmentManager\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90241038-E71C-423F-AC96-F67A332CDF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -37,464 +43,437 @@
     <t>status</t>
   </si>
   <si>
-    <t>Richard Smith</t>
-  </si>
-  <si>
-    <t>Linda Lewis</t>
-  </si>
-  <si>
-    <t>Steven Williams</t>
-  </si>
-  <si>
-    <t>Kimberly Lane</t>
-  </si>
-  <si>
-    <t>Christina Ballard</t>
-  </si>
-  <si>
-    <t>Deborah Everett</t>
-  </si>
-  <si>
-    <t>Steven Henry</t>
-  </si>
-  <si>
-    <t>Marilyn Washington</t>
-  </si>
-  <si>
-    <t>Chad Martinez</t>
-  </si>
-  <si>
-    <t>Christina Green</t>
-  </si>
-  <si>
-    <t>Nicole Smith</t>
-  </si>
-  <si>
-    <t>Larry Meyer</t>
-  </si>
-  <si>
-    <t>Haley Cooper</t>
-  </si>
-  <si>
-    <t>Maria Villarreal</t>
-  </si>
-  <si>
-    <t>Jonathan Mendez</t>
-  </si>
-  <si>
-    <t>Michael Lee</t>
-  </si>
-  <si>
-    <t>Nicholas Perez</t>
-  </si>
-  <si>
-    <t>Jennifer Hamilton</t>
-  </si>
-  <si>
-    <t>Nicole Carey</t>
-  </si>
-  <si>
-    <t>Kevin Holmes</t>
-  </si>
-  <si>
-    <t>Eric Smith</t>
-  </si>
-  <si>
-    <t>William Wilson</t>
-  </si>
-  <si>
-    <t>Walter Murphy</t>
-  </si>
-  <si>
-    <t>Anthony Cardenas</t>
-  </si>
-  <si>
-    <t>Terrence Smith</t>
-  </si>
-  <si>
-    <t>Jackie Gonzalez</t>
-  </si>
-  <si>
-    <t>Ryan Taylor</t>
-  </si>
-  <si>
-    <t>Cindy Bishop</t>
-  </si>
-  <si>
-    <t>Lindsey Cross</t>
-  </si>
-  <si>
-    <t>Ryan Callahan MD</t>
-  </si>
-  <si>
-    <t>gabriel35@hotmail.com</t>
-  </si>
-  <si>
-    <t>markcarter@adams-pennington.com</t>
-  </si>
-  <si>
-    <t>cherylbowen@gmail.com</t>
-  </si>
-  <si>
-    <t>rodriguezivan@hotmail.com</t>
-  </si>
-  <si>
-    <t>craig23@torres.com</t>
-  </si>
-  <si>
-    <t>harriscarrie@newman.com</t>
-  </si>
-  <si>
-    <t>rsanchez@yahoo.com</t>
-  </si>
-  <si>
-    <t>richard01@hotmail.com</t>
-  </si>
-  <si>
-    <t>laurieshaw@miller-ayers.com</t>
-  </si>
-  <si>
-    <t>jbartlett@hobbs.net</t>
-  </si>
-  <si>
-    <t>laura58@valdez-rodriguez.com</t>
-  </si>
-  <si>
-    <t>shannonsherman@burton.info</t>
-  </si>
-  <si>
-    <t>sanchezmatthew@hotmail.com</t>
-  </si>
-  <si>
-    <t>olivermaria@brown.com</t>
-  </si>
-  <si>
-    <t>owhite@yahoo.com</t>
-  </si>
-  <si>
-    <t>ebrown@gmail.com</t>
-  </si>
-  <si>
-    <t>kathy41@hotmail.com</t>
-  </si>
-  <si>
-    <t>benjaminphillips@hotmail.com</t>
-  </si>
-  <si>
-    <t>hoovererin@smith.com</t>
-  </si>
-  <si>
-    <t>ethan99@yahoo.com</t>
-  </si>
-  <si>
-    <t>andrewsjennifer@gmail.com</t>
-  </si>
-  <si>
-    <t>josephbrown@barker.info</t>
-  </si>
-  <si>
-    <t>jorgesimmons@hill.com</t>
-  </si>
-  <si>
-    <t>sfisher@burton.com</t>
-  </si>
-  <si>
-    <t>danielle59@hotmail.com</t>
-  </si>
-  <si>
-    <t>gonzalezsean@garcia.com</t>
-  </si>
-  <si>
-    <t>michaela49@rivers.com</t>
-  </si>
-  <si>
-    <t>leah15@hernandez-george.com</t>
-  </si>
-  <si>
-    <t>brendajones@yahoo.com</t>
-  </si>
-  <si>
-    <t>vincent18@hill.com</t>
-  </si>
-  <si>
-    <t>461-244-1445</t>
-  </si>
-  <si>
-    <t>846-263-8036</t>
-  </si>
-  <si>
-    <t>829-438-5068</t>
-  </si>
-  <si>
-    <t>714-993-5614</t>
-  </si>
-  <si>
-    <t>372-925-9855</t>
-  </si>
-  <si>
-    <t>910-121-6153</t>
-  </si>
-  <si>
-    <t>686-536-3296</t>
-  </si>
-  <si>
-    <t>780-854-1070</t>
-  </si>
-  <si>
-    <t>653-305-4658</t>
-  </si>
-  <si>
-    <t>195-167-8093</t>
-  </si>
-  <si>
-    <t>694-916-5856</t>
-  </si>
-  <si>
-    <t>363-490-1864</t>
-  </si>
-  <si>
-    <t>720-393-2522</t>
-  </si>
-  <si>
-    <t>467-849-8310</t>
-  </si>
-  <si>
-    <t>889-706-7802</t>
-  </si>
-  <si>
-    <t>871-111-9450</t>
-  </si>
-  <si>
-    <t>773-830-7272</t>
-  </si>
-  <si>
-    <t>854-808-9859</t>
-  </si>
-  <si>
-    <t>691-954-6711</t>
-  </si>
-  <si>
-    <t>746-968-5919</t>
-  </si>
-  <si>
-    <t>937-463-5042</t>
-  </si>
-  <si>
-    <t>320-239-3119</t>
-  </si>
-  <si>
-    <t>450-372-5702</t>
-  </si>
-  <si>
-    <t>933-434-6712</t>
-  </si>
-  <si>
-    <t>466-645-2734</t>
-  </si>
-  <si>
-    <t>158-424-9101</t>
-  </si>
-  <si>
-    <t>818-155-1500</t>
-  </si>
-  <si>
-    <t>997-134-4132</t>
-  </si>
-  <si>
-    <t>582-987-5698</t>
-  </si>
-  <si>
-    <t>401-247-3682</t>
-  </si>
-  <si>
-    <t>12:28</t>
+    <t>Dr. Diana Mueller DDS</t>
+  </si>
+  <si>
+    <t>Linda Mitchell</t>
+  </si>
+  <si>
+    <t>Melissa Campbell</t>
+  </si>
+  <si>
+    <t>Rebecca Smith</t>
+  </si>
+  <si>
+    <t>Ronald Walters</t>
+  </si>
+  <si>
+    <t>Michael Taylor</t>
+  </si>
+  <si>
+    <t>Danielle Webb</t>
+  </si>
+  <si>
+    <t>Phillip Taylor</t>
+  </si>
+  <si>
+    <t>Amber Santos</t>
+  </si>
+  <si>
+    <t>Trevor Smith</t>
+  </si>
+  <si>
+    <t>Mr. Kevin Colon</t>
+  </si>
+  <si>
+    <t>Vickie Rocha</t>
+  </si>
+  <si>
+    <t>Bradley Bray</t>
+  </si>
+  <si>
+    <t>Susan Hatfield DDS</t>
+  </si>
+  <si>
+    <t>Julie Harris</t>
+  </si>
+  <si>
+    <t>Aaron Williams</t>
+  </si>
+  <si>
+    <t>Jason Park Jr.</t>
+  </si>
+  <si>
+    <t>Elizabeth Hicks</t>
+  </si>
+  <si>
+    <t>Joseph Brown</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>Mark Martin</t>
+  </si>
+  <si>
+    <t>Nicholas Chase</t>
+  </si>
+  <si>
+    <t>John Walters</t>
+  </si>
+  <si>
+    <t>Ralph Rodriguez</t>
+  </si>
+  <si>
+    <t>Joseph Robinson</t>
+  </si>
+  <si>
+    <t>Julie Green</t>
+  </si>
+  <si>
+    <t>Anthony Gonzalez</t>
+  </si>
+  <si>
+    <t>John Vaughn</t>
+  </si>
+  <si>
+    <t>Jennifer White</t>
+  </si>
+  <si>
+    <t>Carl Perry</t>
+  </si>
+  <si>
+    <t>pbell@yahoo.com</t>
+  </si>
+  <si>
+    <t>martineztracy@gomez-sanders.com</t>
+  </si>
+  <si>
+    <t>dmitchell@hotmail.com</t>
+  </si>
+  <si>
+    <t>jenniferallen@yahoo.com</t>
+  </si>
+  <si>
+    <t>ewells@gmail.com</t>
+  </si>
+  <si>
+    <t>vmoore@yahoo.com</t>
+  </si>
+  <si>
+    <t>carterbrett@wells-erickson.com</t>
+  </si>
+  <si>
+    <t>margaretbrown@larson.com</t>
+  </si>
+  <si>
+    <t>kellysara@hotmail.com</t>
+  </si>
+  <si>
+    <t>timothydavis@collins.com</t>
+  </si>
+  <si>
+    <t>cunninghamchristine@gmail.com</t>
+  </si>
+  <si>
+    <t>kingtony@chang.biz</t>
+  </si>
+  <si>
+    <t>mullinsjill@jacobs.com</t>
+  </si>
+  <si>
+    <t>aphillips@rogers-parsons.com</t>
+  </si>
+  <si>
+    <t>thomas39@gmail.com</t>
+  </si>
+  <si>
+    <t>fmartin@wheeler-henry.org</t>
+  </si>
+  <si>
+    <t>mendezchristopher@gmail.com</t>
+  </si>
+  <si>
+    <t>lindseyyork@webster.com</t>
+  </si>
+  <si>
+    <t>gregorysparks@hotmail.com</t>
+  </si>
+  <si>
+    <t>eflores@freeman-jones.org</t>
+  </si>
+  <si>
+    <t>saundersmadison@hotmail.com</t>
+  </si>
+  <si>
+    <t>vmendez@ramirez.com</t>
+  </si>
+  <si>
+    <t>tonyarobinson@morris.info</t>
+  </si>
+  <si>
+    <t>karenjohnson@hotmail.com</t>
+  </si>
+  <si>
+    <t>johnsonandrew@gmail.com</t>
+  </si>
+  <si>
+    <t>thomas01@krause.com</t>
+  </si>
+  <si>
+    <t>davidcontreras@smith-gaines.com</t>
+  </si>
+  <si>
+    <t>nathaniel96@roberts.biz</t>
+  </si>
+  <si>
+    <t>courtneyhaney@williams.com</t>
+  </si>
+  <si>
+    <t>jacobpetersen@morrison.net</t>
+  </si>
+  <si>
+    <t>900-842-6953</t>
+  </si>
+  <si>
+    <t>480-614-5658</t>
+  </si>
+  <si>
+    <t>686-595-7018</t>
+  </si>
+  <si>
+    <t>584-680-4733</t>
+  </si>
+  <si>
+    <t>422-323-2374</t>
+  </si>
+  <si>
+    <t>367-320-9039</t>
+  </si>
+  <si>
+    <t>565-501-6708</t>
+  </si>
+  <si>
+    <t>866-389-5072</t>
+  </si>
+  <si>
+    <t>751-474-2673</t>
+  </si>
+  <si>
+    <t>146-581-6015</t>
+  </si>
+  <si>
+    <t>350-972-6744</t>
+  </si>
+  <si>
+    <t>145-109-2047</t>
+  </si>
+  <si>
+    <t>772-487-2508</t>
+  </si>
+  <si>
+    <t>797-313-3833</t>
+  </si>
+  <si>
+    <t>284-611-2500</t>
+  </si>
+  <si>
+    <t>793-302-5162</t>
+  </si>
+  <si>
+    <t>601-188-7959</t>
+  </si>
+  <si>
+    <t>975-857-4793</t>
+  </si>
+  <si>
+    <t>247-200-3970</t>
+  </si>
+  <si>
+    <t>645-460-2553</t>
+  </si>
+  <si>
+    <t>520-949-3286</t>
+  </si>
+  <si>
+    <t>657-836-5065</t>
+  </si>
+  <si>
+    <t>610-400-9669</t>
+  </si>
+  <si>
+    <t>527-759-7492</t>
+  </si>
+  <si>
+    <t>659-753-5264</t>
+  </si>
+  <si>
+    <t>787-523-5587</t>
+  </si>
+  <si>
+    <t>858-916-6499</t>
+  </si>
+  <si>
+    <t>182-179-4472</t>
+  </si>
+  <si>
+    <t>891-678-3805</t>
+  </si>
+  <si>
+    <t>223-423-5202</t>
+  </si>
+  <si>
+    <t>07:39</t>
+  </si>
+  <si>
+    <t>18:36</t>
+  </si>
+  <si>
+    <t>09:04</t>
+  </si>
+  <si>
+    <t>14:34</t>
+  </si>
+  <si>
+    <t>03:48</t>
+  </si>
+  <si>
+    <t>10:32</t>
+  </si>
+  <si>
+    <t>04:39</t>
+  </si>
+  <si>
+    <t>12:51</t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>21:01</t>
+  </si>
+  <si>
+    <t>07:59</t>
+  </si>
+  <si>
+    <t>05:23</t>
+  </si>
+  <si>
+    <t>07:41</t>
+  </si>
+  <si>
+    <t>03:04</t>
+  </si>
+  <si>
+    <t>09:47</t>
   </si>
   <si>
     <t>22:26</t>
   </si>
   <si>
-    <t>06:40</t>
-  </si>
-  <si>
-    <t>03:43</t>
-  </si>
-  <si>
-    <t>04:55</t>
-  </si>
-  <si>
-    <t>19:32</t>
-  </si>
-  <si>
-    <t>08:28</t>
-  </si>
-  <si>
-    <t>08:13</t>
-  </si>
-  <si>
-    <t>22:41</t>
-  </si>
-  <si>
-    <t>17:08</t>
-  </si>
-  <si>
-    <t>02:57</t>
-  </si>
-  <si>
-    <t>20:07</t>
-  </si>
-  <si>
-    <t>01:08</t>
-  </si>
-  <si>
-    <t>08:20</t>
-  </si>
-  <si>
-    <t>02:13</t>
-  </si>
-  <si>
-    <t>20:49</t>
-  </si>
-  <si>
-    <t>19:37</t>
-  </si>
-  <si>
-    <t>12:43</t>
-  </si>
-  <si>
-    <t>06:51</t>
-  </si>
-  <si>
-    <t>03:21</t>
-  </si>
-  <si>
-    <t>03:16</t>
-  </si>
-  <si>
-    <t>09:10</t>
-  </si>
-  <si>
-    <t>10:21</t>
-  </si>
-  <si>
-    <t>08:44</t>
-  </si>
-  <si>
-    <t>19:45</t>
-  </si>
-  <si>
-    <t>02:04</t>
-  </si>
-  <si>
-    <t>05:33</t>
-  </si>
-  <si>
-    <t>12:24</t>
-  </si>
-  <si>
-    <t>10:50</t>
-  </si>
-  <si>
-    <t>17:43</t>
-  </si>
-  <si>
-    <t>22:08:72</t>
-  </si>
-  <si>
-    <t>27:03:78</t>
-  </si>
-  <si>
-    <t>09:01:86</t>
-  </si>
-  <si>
-    <t>21:01:14</t>
-  </si>
-  <si>
-    <t>19:04:06</t>
-  </si>
-  <si>
-    <t>15:04:22</t>
-  </si>
-  <si>
-    <t>24:08:80</t>
-  </si>
-  <si>
-    <t>01:08:06</t>
-  </si>
-  <si>
-    <t>28:10:94</t>
-  </si>
-  <si>
-    <t>21:01:98</t>
-  </si>
-  <si>
-    <t>04:10:94</t>
-  </si>
-  <si>
-    <t>21:03:74</t>
-  </si>
-  <si>
-    <t>17:06:09</t>
-  </si>
-  <si>
-    <t>05:09:83</t>
-  </si>
-  <si>
-    <t>08:09:12</t>
-  </si>
-  <si>
-    <t>23:04:08</t>
-  </si>
-  <si>
-    <t>07:08:01</t>
-  </si>
-  <si>
-    <t>21:05:20</t>
-  </si>
-  <si>
-    <t>20:10:88</t>
-  </si>
-  <si>
-    <t>18:04:07</t>
-  </si>
-  <si>
-    <t>06:05:70</t>
-  </si>
-  <si>
-    <t>09:07:72</t>
-  </si>
-  <si>
-    <t>20:03:24</t>
-  </si>
-  <si>
-    <t>24:04:87</t>
-  </si>
-  <si>
-    <t>10:09:78</t>
-  </si>
-  <si>
-    <t>18:07:90</t>
-  </si>
-  <si>
-    <t>28:01:85</t>
-  </si>
-  <si>
-    <t>22:10:80</t>
-  </si>
-  <si>
-    <t>14:11:76</t>
-  </si>
-  <si>
-    <t>31:05:15</t>
+    <t>22:53</t>
+  </si>
+  <si>
+    <t>02:38</t>
+  </si>
+  <si>
+    <t>05:53</t>
+  </si>
+  <si>
+    <t>15:41</t>
+  </si>
+  <si>
+    <t>06:03</t>
+  </si>
+  <si>
+    <t>22:15</t>
+  </si>
+  <si>
+    <t>03:01</t>
+  </si>
+  <si>
+    <t>22:48</t>
+  </si>
+  <si>
+    <t>07:52</t>
+  </si>
+  <si>
+    <t>14:14</t>
+  </si>
+  <si>
+    <t>08:04</t>
+  </si>
+  <si>
+    <t>15:42</t>
+  </si>
+  <si>
+    <t>19/11/2025</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
+    <t>23/11/2025</t>
+  </si>
+  <si>
+    <t>25/10/2025</t>
+  </si>
+  <si>
+    <t>30/11/2025</t>
+  </si>
+  <si>
+    <t>01/12/2025</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>20/11/2025</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>21/11/2025</t>
+  </si>
+  <si>
+    <t>24/11/2025</t>
+  </si>
+  <si>
+    <t>19/10/2025</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>18/11/2025</t>
+  </si>
+  <si>
+    <t>29/11/2025</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>01/11/2025</t>
+  </si>
+  <si>
+    <t>08/11/2025</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
+  </si>
+  <si>
+    <t>18/10/2025</t>
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>16/10/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,13 +536,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -601,7 +588,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -635,6 +622,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -669,9 +657,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -844,14 +833,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -891,13 +882,13 @@
         <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -914,13 +905,13 @@
         <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -937,13 +928,13 @@
         <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -960,13 +951,13 @@
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -983,13 +974,13 @@
         <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1006,13 +997,13 @@
         <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1029,13 +1020,13 @@
         <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1052,13 +1043,13 @@
         <v>104</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1075,13 +1066,13 @@
         <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1095,16 +1086,16 @@
         <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1118,16 +1109,16 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1141,16 +1132,16 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1164,16 +1155,16 @@
         <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1187,16 +1178,16 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1210,16 +1201,16 @@
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1233,16 +1224,16 @@
         <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1256,16 +1247,16 @@
         <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1279,16 +1270,16 @@
         <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1302,16 +1293,16 @@
         <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1325,16 +1316,16 @@
         <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1348,16 +1339,16 @@
         <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1371,16 +1362,16 @@
         <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1394,16 +1385,16 @@
         <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1417,16 +1408,16 @@
         <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1440,16 +1431,16 @@
         <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1463,16 +1454,16 @@
         <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1486,16 +1477,16 @@
         <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1509,16 +1500,16 @@
         <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1532,16 +1523,16 @@
         <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="G30" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1555,13 +1546,13 @@
         <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G31" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Appointments.xlsx
+++ b/Appointments.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasiv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edwin\Documents\UiPath\AppointmentManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32033F34-01F1-4C29-AB77-9969B8DD5148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD4E2D1-D10E-4342-8E41-23FADEFA89CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3670" yWindow="1710" windowWidth="12090" windowHeight="8710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2808" yWindow="6708" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,15 +471,15 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -519,7 +519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -539,7 +539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -559,7 +559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -579,7 +579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
